--- a/lab7/Исследование.xlsx
+++ b/lab7/Исследование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9DF3E-A11C-684B-8B07-C5E047EBFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA1947-1498-9948-B444-44B394670928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
+    <workbookView xWindow="-4260" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
   <sheets>
     <sheet name="Хэбб" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Х</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>1;2;1;2;1;2;1</t>
+  </si>
+  <si>
+    <t>csd</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -453,6 +456,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +778,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58431B6C-CFF4-8644-88AF-E34C2A3F1FE8}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1217,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="27" t="s">
         <v>21</v>
@@ -1278,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="27" t="s">
         <v>22</v>
@@ -1299,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="28" t="s">
         <v>17</v>
@@ -1320,7 +1326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="27" t="s">
         <v>21</v>
@@ -1364,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="27" t="s">
         <v>22</v>
@@ -1385,7 +1391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="28" t="s">
         <v>17</v>
@@ -1406,7 +1412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="27" t="s">
         <v>21</v>
@@ -1450,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="27" t="s">
         <v>22</v>
@@ -1470,8 +1476,11 @@
       <c r="G12" s="26">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="28" t="s">
         <v>17</v>
@@ -1492,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
         <v>21</v>
@@ -1536,7 +1545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="27" t="s">
         <v>22</v>
